--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/85/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/85/FD_Curve.xlsx
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.862010000000001</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.01</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247924</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>8.522500000000001</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>8522.5</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278849</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>8.673350000000001</v>
+        <v>10.0216</v>
       </c>
       <c r="C11" t="n">
-        <v>8673.35</v>
+        <v>10021.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309774</v>
+        <v>0.309783</v>
       </c>
       <c r="B12" t="n">
-        <v>8.82621</v>
+        <v>11.1847</v>
       </c>
       <c r="C12" t="n">
-        <v>8826.209999999999</v>
+        <v>11184.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340708</v>
       </c>
       <c r="B13" t="n">
-        <v>8.921100000000001</v>
+        <v>12.1567</v>
       </c>
       <c r="C13" t="n">
-        <v>8921.1</v>
+        <v>12156.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371633</v>
       </c>
       <c r="B14" t="n">
-        <v>9.005270000000001</v>
+        <v>13.2666</v>
       </c>
       <c r="C14" t="n">
-        <v>9005.27</v>
+        <v>13266.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402558</v>
       </c>
       <c r="B15" t="n">
-        <v>9.070819999999999</v>
+        <v>14.06</v>
       </c>
       <c r="C15" t="n">
-        <v>9070.82</v>
+        <v>14060</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433483</v>
       </c>
       <c r="B16" t="n">
-        <v>9.122669999999999</v>
+        <v>14.5784</v>
       </c>
       <c r="C16" t="n">
-        <v>9122.67</v>
+        <v>14578.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464403</v>
       </c>
       <c r="B17" t="n">
-        <v>9.171809999999999</v>
+        <v>15.0337</v>
       </c>
       <c r="C17" t="n">
-        <v>9171.809999999999</v>
+        <v>15033.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495328</v>
       </c>
       <c r="B18" t="n">
-        <v>9.215760000000001</v>
+        <v>15.1304</v>
       </c>
       <c r="C18" t="n">
-        <v>9215.76</v>
+        <v>15130.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526253</v>
       </c>
       <c r="B19" t="n">
-        <v>9.25189</v>
+        <v>15.1024</v>
       </c>
       <c r="C19" t="n">
-        <v>9251.889999999999</v>
+        <v>15102.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557178</v>
       </c>
       <c r="B20" t="n">
-        <v>9.286760000000001</v>
+        <v>15.0474</v>
       </c>
       <c r="C20" t="n">
-        <v>9286.76</v>
+        <v>15047.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588103</v>
       </c>
       <c r="B21" t="n">
-        <v>9.31658</v>
+        <v>14.975</v>
       </c>
       <c r="C21" t="n">
-        <v>9316.58</v>
+        <v>14975</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.6191449999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>9.34385</v>
+        <v>14.8988</v>
       </c>
       <c r="C22" t="n">
-        <v>9343.85</v>
+        <v>14898.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650322</v>
       </c>
       <c r="B23" t="n">
-        <v>9.36698</v>
+        <v>14.802</v>
       </c>
       <c r="C23" t="n">
-        <v>9366.98</v>
+        <v>14802</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681495</v>
       </c>
       <c r="B24" t="n">
-        <v>9.38706</v>
+        <v>14.7097</v>
       </c>
       <c r="C24" t="n">
-        <v>9387.059999999999</v>
+        <v>14709.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.7126670000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>9.4056</v>
+        <v>14.6006</v>
       </c>
       <c r="C25" t="n">
-        <v>9405.6</v>
+        <v>14600.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.7438439999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>9.421610000000001</v>
+        <v>14.491</v>
       </c>
       <c r="C26" t="n">
-        <v>9421.610000000001</v>
+        <v>14491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775017</v>
       </c>
       <c r="B27" t="n">
-        <v>9.435829999999999</v>
+        <v>14.3715</v>
       </c>
       <c r="C27" t="n">
-        <v>9435.83</v>
+        <v>14371.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>9.447930000000001</v>
+        <v>14.242</v>
       </c>
       <c r="C28" t="n">
-        <v>9447.93</v>
+        <v>14242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837367</v>
       </c>
       <c r="B29" t="n">
-        <v>9.45825</v>
+        <v>14.1104</v>
       </c>
       <c r="C29" t="n">
-        <v>9458.25</v>
+        <v>14110.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.8685389999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>9.466700000000001</v>
+        <v>13.9621</v>
       </c>
       <c r="C30" t="n">
-        <v>9466.700000000001</v>
+        <v>13962.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>9.47363</v>
+        <v>13.8161</v>
       </c>
       <c r="C31" t="n">
-        <v>9473.629999999999</v>
+        <v>13816.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930889</v>
       </c>
       <c r="B32" t="n">
-        <v>9.479000000000001</v>
+        <v>13.6532</v>
       </c>
       <c r="C32" t="n">
-        <v>9479</v>
+        <v>13653.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9620610000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>9.48277</v>
+        <v>13.4876</v>
       </c>
       <c r="C33" t="n">
-        <v>9482.77</v>
+        <v>13487.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993238</v>
       </c>
       <c r="B34" t="n">
-        <v>9.485010000000001</v>
+        <v>13.3126</v>
       </c>
       <c r="C34" t="n">
-        <v>9485.01</v>
+        <v>13312.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02427</v>
       </c>
       <c r="B35" t="n">
-        <v>9.485809999999999</v>
+        <v>13.1261</v>
       </c>
       <c r="C35" t="n">
-        <v>9485.809999999999</v>
+        <v>13126.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>9.485209999999999</v>
+        <v>12.9393</v>
       </c>
       <c r="C36" t="n">
-        <v>9485.209999999999</v>
+        <v>12939.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>9.48324</v>
+        <v>12.7343</v>
       </c>
       <c r="C37" t="n">
-        <v>9483.24</v>
+        <v>12734.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11868</v>
+        <v>1.11719</v>
       </c>
       <c r="B38" t="n">
-        <v>9.479900000000001</v>
+        <v>9.1736</v>
       </c>
       <c r="C38" t="n">
-        <v>9479.9</v>
+        <v>9173.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15006</v>
+        <v>1.14801</v>
       </c>
       <c r="B39" t="n">
-        <v>9.475209999999999</v>
+        <v>9.261709999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>9475.209999999999</v>
+        <v>9261.709999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18144</v>
+        <v>1.17925</v>
       </c>
       <c r="B40" t="n">
-        <v>9.469139999999999</v>
+        <v>11.3469</v>
       </c>
       <c r="C40" t="n">
-        <v>9469.139999999999</v>
+        <v>11346.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21283</v>
+        <v>1.21007</v>
       </c>
       <c r="B41" t="n">
-        <v>9.461740000000001</v>
+        <v>10.2234</v>
       </c>
       <c r="C41" t="n">
-        <v>9461.74</v>
+        <v>10223.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.2442</v>
+        <v>1.24148</v>
       </c>
       <c r="B42" t="n">
-        <v>9.452999999999999</v>
+        <v>11.7999</v>
       </c>
       <c r="C42" t="n">
-        <v>9453</v>
+        <v>11799.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27558</v>
+        <v>1.27242</v>
       </c>
       <c r="B43" t="n">
-        <v>9.442399999999999</v>
+        <v>11.5492</v>
       </c>
       <c r="C43" t="n">
-        <v>9442.4</v>
+        <v>11549.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30697</v>
+        <v>1.3032</v>
       </c>
       <c r="B44" t="n">
-        <v>9.43022</v>
+        <v>11.7356</v>
       </c>
       <c r="C44" t="n">
-        <v>9430.219999999999</v>
+        <v>11735.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33835</v>
+        <v>1.33447</v>
       </c>
       <c r="B45" t="n">
-        <v>9.41672</v>
+        <v>11.4892</v>
       </c>
       <c r="C45" t="n">
-        <v>9416.719999999999</v>
+        <v>11489.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36973</v>
+        <v>1.36524</v>
       </c>
       <c r="B46" t="n">
-        <v>9.40184</v>
+        <v>11.2095</v>
       </c>
       <c r="C46" t="n">
-        <v>9401.84</v>
+        <v>11209.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40111</v>
+        <v>1.39636</v>
       </c>
       <c r="B47" t="n">
-        <v>9.38542</v>
+        <v>10.9262</v>
       </c>
       <c r="C47" t="n">
-        <v>9385.42</v>
+        <v>10926.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43249</v>
+        <v>1.42747</v>
       </c>
       <c r="B48" t="n">
-        <v>9.367559999999999</v>
+        <v>10.7342</v>
       </c>
       <c r="C48" t="n">
-        <v>9367.559999999999</v>
+        <v>10734.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46387</v>
+        <v>1.4585</v>
       </c>
       <c r="B49" t="n">
-        <v>9.348090000000001</v>
+        <v>10.4922</v>
       </c>
       <c r="C49" t="n">
-        <v>9348.09</v>
+        <v>10492.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49525</v>
+        <v>1.48949</v>
       </c>
       <c r="B50" t="n">
-        <v>9.326969999999999</v>
+        <v>10.2023</v>
       </c>
       <c r="C50" t="n">
-        <v>9326.969999999999</v>
+        <v>10202.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52663</v>
+        <v>1.52047</v>
       </c>
       <c r="B51" t="n">
-        <v>9.30344</v>
+        <v>9.847790000000002</v>
       </c>
       <c r="C51" t="n">
-        <v>9303.440000000001</v>
+        <v>9847.790000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55801</v>
+        <v>1.55151</v>
       </c>
       <c r="B52" t="n">
-        <v>9.27783</v>
+        <v>9.667629999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>9277.83</v>
+        <v>9667.629999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58939</v>
+        <v>1.58248</v>
       </c>
       <c r="B53" t="n">
-        <v>9.25071</v>
+        <v>9.45134</v>
       </c>
       <c r="C53" t="n">
-        <v>9250.709999999999</v>
+        <v>9451.34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62077</v>
+        <v>1.61349</v>
       </c>
       <c r="B54" t="n">
-        <v>9.221879999999999</v>
+        <v>9.25319</v>
       </c>
       <c r="C54" t="n">
-        <v>9221.879999999999</v>
+        <v>9253.190000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65215</v>
+        <v>1.64438</v>
       </c>
       <c r="B55" t="n">
-        <v>9.191360000000001</v>
+        <v>8.949170000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>9191.360000000001</v>
+        <v>8949.17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68353</v>
+        <v>1.67545</v>
       </c>
       <c r="B56" t="n">
-        <v>9.15906</v>
+        <v>8.73907</v>
       </c>
       <c r="C56" t="n">
-        <v>9159.059999999999</v>
+        <v>8739.07</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71492</v>
+        <v>1.70641</v>
       </c>
       <c r="B57" t="n">
-        <v>9.124370000000001</v>
+        <v>8.54772</v>
       </c>
       <c r="C57" t="n">
-        <v>9124.370000000001</v>
+        <v>8547.719999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.7463</v>
+        <v>1.73766</v>
       </c>
       <c r="B58" t="n">
-        <v>9.087160000000001</v>
+        <v>8.465629999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>9087.16</v>
+        <v>8465.629999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77767</v>
+        <v>1.76859</v>
       </c>
       <c r="B59" t="n">
-        <v>9.04776</v>
+        <v>8.23542</v>
       </c>
       <c r="C59" t="n">
-        <v>9047.76</v>
+        <v>8235.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80884</v>
+        <v>1.79949</v>
       </c>
       <c r="B60" t="n">
-        <v>9.005990000000001</v>
+        <v>8.03612</v>
       </c>
       <c r="C60" t="n">
-        <v>9005.99</v>
+        <v>8036.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8398</v>
+        <v>1.83069</v>
       </c>
       <c r="B61" t="n">
-        <v>8.96203</v>
+        <v>7.914390000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>8962.030000000001</v>
+        <v>7914.39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.87077</v>
+        <v>1.86153</v>
       </c>
       <c r="B62" t="n">
-        <v>8.915660000000001</v>
+        <v>7.81761</v>
       </c>
       <c r="C62" t="n">
-        <v>8915.66</v>
+        <v>7817.61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.90171</v>
+        <v>1.89263</v>
       </c>
       <c r="B63" t="n">
-        <v>8.8666</v>
+        <v>7.68384</v>
       </c>
       <c r="C63" t="n">
-        <v>8866.6</v>
+        <v>7683.84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93276</v>
+        <v>1.9237</v>
       </c>
       <c r="B64" t="n">
-        <v>8.81465</v>
+        <v>7.499840000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>8814.65</v>
+        <v>7499.84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96372</v>
+        <v>1.95441</v>
       </c>
       <c r="B65" t="n">
-        <v>8.760040000000002</v>
+        <v>7.3907</v>
       </c>
       <c r="C65" t="n">
-        <v>8760.040000000001</v>
+        <v>7390.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99473</v>
+        <v>1.98558</v>
       </c>
       <c r="B66" t="n">
-        <v>8.70251</v>
+        <v>7.29818</v>
       </c>
       <c r="C66" t="n">
-        <v>8702.51</v>
+        <v>7298.18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02564</v>
+        <v>2.01683</v>
       </c>
       <c r="B67" t="n">
-        <v>8.641719999999999</v>
+        <v>7.18978</v>
       </c>
       <c r="C67" t="n">
-        <v>8641.719999999999</v>
+        <v>7189.78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05648</v>
+        <v>2.0479</v>
       </c>
       <c r="B68" t="n">
-        <v>8.578370000000001</v>
+        <v>7.053500000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>8578.370000000001</v>
+        <v>7053.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08775</v>
+        <v>2.07822</v>
       </c>
       <c r="B69" t="n">
-        <v>8.5108</v>
+        <v>6.96157</v>
       </c>
       <c r="C69" t="n">
-        <v>8510.799999999999</v>
+        <v>6961.57</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11859</v>
+        <v>2.10967</v>
       </c>
       <c r="B70" t="n">
-        <v>8.440430000000001</v>
+        <v>6.8839</v>
       </c>
       <c r="C70" t="n">
-        <v>8440.43</v>
+        <v>6883.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14951</v>
+        <v>2.14046</v>
       </c>
       <c r="B71" t="n">
-        <v>8.36687</v>
+        <v>6.82371</v>
       </c>
       <c r="C71" t="n">
-        <v>8366.870000000001</v>
+        <v>6823.71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1807</v>
+        <v>2.17194</v>
       </c>
       <c r="B72" t="n">
-        <v>8.28941</v>
+        <v>6.777640000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>8289.41</v>
+        <v>6777.64</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.2117</v>
+        <v>2.20379</v>
       </c>
       <c r="B73" t="n">
-        <v>8.20932</v>
+        <v>6.8108</v>
       </c>
       <c r="C73" t="n">
-        <v>8209.32</v>
+        <v>6810.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24263</v>
+        <v>2.23452</v>
       </c>
       <c r="B74" t="n">
-        <v>8.12533</v>
+        <v>6.787500000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>8125.33</v>
+        <v>6787.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27364</v>
+        <v>2.26524</v>
       </c>
       <c r="B75" t="n">
-        <v>8.038270000000001</v>
+        <v>6.77672</v>
       </c>
       <c r="C75" t="n">
-        <v>8038.27</v>
+        <v>6776.72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30453</v>
+        <v>2.29596</v>
       </c>
       <c r="B76" t="n">
-        <v>7.949020000000001</v>
+        <v>6.76046</v>
       </c>
       <c r="C76" t="n">
-        <v>7949.02</v>
+        <v>6760.46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33578</v>
+        <v>2.32668</v>
       </c>
       <c r="B77" t="n">
-        <v>7.85578</v>
+        <v>6.7076</v>
       </c>
       <c r="C77" t="n">
-        <v>7855.78</v>
+        <v>6707.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36644</v>
+        <v>2.35747</v>
       </c>
       <c r="B78" t="n">
-        <v>7.76137</v>
+        <v>6.66932</v>
       </c>
       <c r="C78" t="n">
-        <v>7761.37</v>
+        <v>6669.32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39771</v>
+        <v>2.38872</v>
       </c>
       <c r="B79" t="n">
-        <v>7.66324</v>
+        <v>6.63748</v>
       </c>
       <c r="C79" t="n">
-        <v>7663.24</v>
+        <v>6637.48</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42866</v>
+        <v>2.42001</v>
       </c>
       <c r="B80" t="n">
-        <v>7.56379</v>
+        <v>6.63553</v>
       </c>
       <c r="C80" t="n">
-        <v>7563.79</v>
+        <v>6635.53</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45961</v>
+        <v>2.44857</v>
       </c>
       <c r="B81" t="n">
-        <v>7.46157</v>
+        <v>6.58648</v>
       </c>
       <c r="C81" t="n">
-        <v>7461.57</v>
+        <v>6586.48</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4899</v>
+        <v>2.47877</v>
       </c>
       <c r="B82" t="n">
-        <v>7.36013</v>
+        <v>6.544630000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>7360.13</v>
+        <v>6544.63</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.52149</v>
+        <v>2.51385</v>
       </c>
       <c r="B83" t="n">
-        <v>7.252479999999999</v>
+        <v>6.51592</v>
       </c>
       <c r="C83" t="n">
-        <v>7252.48</v>
+        <v>6515.92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55278</v>
+        <v>2.54905</v>
       </c>
       <c r="B84" t="n">
-        <v>7.143560000000001</v>
+        <v>6.46668</v>
       </c>
       <c r="C84" t="n">
-        <v>7143.56</v>
+        <v>6466.68</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58334</v>
+        <v>2.58195</v>
       </c>
       <c r="B85" t="n">
-        <v>7.03661</v>
+        <v>6.411750000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>7036.61</v>
+        <v>6411.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61321</v>
+        <v>2.61396</v>
       </c>
       <c r="B86" t="n">
-        <v>6.93199</v>
+        <v>6.39231</v>
       </c>
       <c r="C86" t="n">
-        <v>6931.99</v>
+        <v>6392.31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64489</v>
+        <v>2.64595</v>
       </c>
       <c r="B87" t="n">
-        <v>6.8208</v>
+        <v>6.3359</v>
       </c>
       <c r="C87" t="n">
-        <v>6820.8</v>
+        <v>6335.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67689</v>
+        <v>2.67795</v>
       </c>
       <c r="B88" t="n">
-        <v>6.709180000000001</v>
+        <v>6.29383</v>
       </c>
       <c r="C88" t="n">
-        <v>6709.18</v>
+        <v>6293.83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70792</v>
+        <v>2.70996</v>
       </c>
       <c r="B89" t="n">
-        <v>6.60069</v>
+        <v>6.252890000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>6600.69</v>
+        <v>6252.89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73832</v>
+        <v>2.74195</v>
       </c>
       <c r="B90" t="n">
-        <v>6.49509</v>
+        <v>6.21138</v>
       </c>
       <c r="C90" t="n">
-        <v>6495.09</v>
+        <v>6211.38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7681</v>
+        <v>2.77396</v>
       </c>
       <c r="B91" t="n">
-        <v>6.39225</v>
+        <v>6.18555</v>
       </c>
       <c r="C91" t="n">
-        <v>6392.25</v>
+        <v>6185.55</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79928</v>
+        <v>2.80595</v>
       </c>
       <c r="B92" t="n">
-        <v>6.28413</v>
+        <v>6.12516</v>
       </c>
       <c r="C92" t="n">
-        <v>6284.13</v>
+        <v>6125.16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83205</v>
+        <v>2.8364</v>
       </c>
       <c r="B93" t="n">
-        <v>6.17356</v>
+        <v>6.08582</v>
       </c>
       <c r="C93" t="n">
-        <v>6173.56</v>
+        <v>6085.82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86314</v>
+        <v>2.8652</v>
       </c>
       <c r="B94" t="n">
-        <v>6.06642</v>
+        <v>6.08051</v>
       </c>
       <c r="C94" t="n">
-        <v>6066.42</v>
+        <v>6080.51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89422</v>
+        <v>2.894</v>
       </c>
       <c r="B95" t="n">
-        <v>5.96263</v>
+        <v>6.028720000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>5962.63</v>
+        <v>6028.72</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92434</v>
+        <v>2.9228</v>
       </c>
       <c r="B96" t="n">
-        <v>5.86183</v>
+        <v>6.00861</v>
       </c>
       <c r="C96" t="n">
-        <v>5861.83</v>
+        <v>6008.61</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9536</v>
+        <v>2.9516</v>
       </c>
       <c r="B97" t="n">
-        <v>5.76417</v>
+        <v>5.95294</v>
       </c>
       <c r="C97" t="n">
-        <v>5764.17</v>
+        <v>5952.94</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98443</v>
+        <v>2.9804</v>
       </c>
       <c r="B98" t="n">
-        <v>5.66413</v>
+        <v>5.944</v>
       </c>
       <c r="C98" t="n">
-        <v>5664.13</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01714</v>
+        <v>3.0092</v>
       </c>
       <c r="B99" t="n">
-        <v>5.55657</v>
+        <v>5.90753</v>
       </c>
       <c r="C99" t="n">
-        <v>5556.57</v>
+        <v>5907.53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04914</v>
+        <v>3.038</v>
       </c>
       <c r="B100" t="n">
-        <v>5.45238</v>
+        <v>5.89407</v>
       </c>
       <c r="C100" t="n">
-        <v>5452.38</v>
+        <v>5894.07</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.08114</v>
+        <v>3.0668</v>
       </c>
       <c r="B101" t="n">
-        <v>5.35193</v>
+        <v>5.82025</v>
       </c>
       <c r="C101" t="n">
-        <v>5351.93</v>
+        <v>5820.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11179</v>
+        <v>3.0956</v>
       </c>
       <c r="B102" t="n">
-        <v>5.254729999999999</v>
+        <v>5.83424</v>
       </c>
       <c r="C102" t="n">
-        <v>5254.73</v>
+        <v>5834.24</v>
       </c>
     </row>
   </sheetData>
